--- a/Doc/ExcelConfig/Datas/活动/TActivitySevenDayLogin.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivitySevenDayLogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -748,9 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1103,13 +1100,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A20" sqref="$A20:$XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -1143,14 +1140,14 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="17.25" spans="1:14">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.5" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1169,14 +1166,14 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.25" spans="1:8">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1187,10 +1184,10 @@
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="4" t="s">
@@ -1201,604 +1198,524 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>10001</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16">
-        <v>44735</v>
-      </c>
-      <c r="E6" s="16">
-        <v>44742</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
+        <v>45078</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45473</v>
+      </c>
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>10001</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16">
         <v>10002</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>10002</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>10001</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
         <v>3</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>10002</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
         <v>10001</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>10002</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <v>10001</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <v>5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>10002</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <v>10001</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
         <v>6</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>10002</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <v>10001</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
         <v>7</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>10002</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <v>10001</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="17">
-        <v>10002</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16">
-        <v>44735</v>
-      </c>
-      <c r="E20" s="16">
-        <v>44742</v>
-      </c>
-      <c r="F20" s="17">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
-        <v>10001</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17">
-        <v>10002</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="4:8">
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="17">
-        <v>2</v>
-      </c>
-      <c r="G22" s="17">
-        <v>10001</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17">
-        <v>10002</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="4:8">
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
